--- a/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion-NSE.xlsx
+++ b/output/CEP-Datasets/V.2CEP-Idpart-Izquierda-Extraconcertacion-NSE.xlsx
@@ -421,34 +421,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.2169926877811067</v>
+        <v>0.009607864071965899</v>
       </c>
       <c r="C2">
-        <v>0.300709275035334</v>
+        <v>0.02547733431879777</v>
       </c>
       <c r="D2">
-        <v>0.3638955469001406</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="E2">
-        <v>0.2843079922027293</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.390133269682142</v>
+        <v>0.005191550304332257</v>
       </c>
       <c r="G2">
-        <v>0.440074769990881</v>
+        <v>0.01352129911543065</v>
       </c>
       <c r="H2">
-        <v>0.462077034911114</v>
+        <v>0.01004851004851003</v>
       </c>
       <c r="I2">
-        <v>0.5733194061073803</v>
+        <v>0.006300553426990201</v>
       </c>
       <c r="J2">
-        <v>0.66009805870271</v>
+        <v>0.006098191214470299</v>
       </c>
       <c r="K2">
-        <v>0.6734615384615386</v>
+        <v>0.01675824175824175</v>
       </c>
     </row>
     <row r="3">
@@ -458,34 +458,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.260965070731687</v>
+        <v>0.01861105608723967</v>
       </c>
       <c r="C3">
-        <v>0.387278847474926</v>
+        <v>0.01049943883277217</v>
       </c>
       <c r="D3">
-        <v>0.3721051734241543</v>
+        <v>0.01363740497761117</v>
       </c>
       <c r="E3">
-        <v>0.3485001534400546</v>
+        <v>0.02104375460636393</v>
       </c>
       <c r="F3">
-        <v>0.4001834349361313</v>
+        <v>0.02275406833925</v>
       </c>
       <c r="G3">
-        <v>0.5059050508952456</v>
+        <v>0.02121957727909081</v>
       </c>
       <c r="H3">
-        <v>0.6269109716614421</v>
+        <v>0.01429270583243773</v>
       </c>
       <c r="I3">
-        <v>0.6841596642214333</v>
+        <v>0.005339105339105334</v>
       </c>
       <c r="J3">
-        <v>0.7315922293185601</v>
+        <v>0.008233371689181033</v>
       </c>
       <c r="K3">
-        <v>0.7808891961650275</v>
+        <v>0.0233184872629388</v>
       </c>
     </row>
     <row r="4">
@@ -495,34 +495,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.279482255726179</v>
+        <v>0.02223648218185563</v>
       </c>
       <c r="C4">
-        <v>0.379650706509054</v>
+        <v>0.01223717733221533</v>
       </c>
       <c r="D4">
-        <v>0.4062337301875967</v>
+        <v>0.0176162416708393</v>
       </c>
       <c r="E4">
-        <v>0.4063779013484086</v>
+        <v>0.02263095373485397</v>
       </c>
       <c r="F4">
-        <v>0.419247808817087</v>
+        <v>0.02792940243643537</v>
       </c>
       <c r="G4">
-        <v>0.5435502024419663</v>
+        <v>0.0206926638517629</v>
       </c>
       <c r="H4">
-        <v>0.605911420002058</v>
+        <v>0.01884081015136253</v>
       </c>
       <c r="I4">
-        <v>0.7114393811580233</v>
+        <v>0.0064031950386499</v>
       </c>
       <c r="J4">
-        <v>0.7783687124479083</v>
+        <v>0.006074723297124736</v>
       </c>
       <c r="K4">
-        <v>0.8056455610221764</v>
+        <v>0.02131717203729095</v>
       </c>
     </row>
     <row r="5">
@@ -532,34 +532,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.279433037841785</v>
+        <v>0.03242169269328047</v>
       </c>
       <c r="C5">
-        <v>0.349056730236565</v>
+        <v>0.01994268055928894</v>
       </c>
       <c r="D5">
-        <v>0.4372128171066116</v>
+        <v>0.02538135047134923</v>
       </c>
       <c r="E5">
-        <v>0.4338283236906607</v>
+        <v>0.02514440029998933</v>
       </c>
       <c r="F5">
-        <v>0.491283674825453</v>
+        <v>0.0232964879515586</v>
       </c>
       <c r="G5">
-        <v>0.6166944527147796</v>
+        <v>0.0254706311100013</v>
       </c>
       <c r="H5">
-        <v>0.6530950276719173</v>
+        <v>0.0165216791157632</v>
       </c>
       <c r="I5">
-        <v>0.7417902012643122</v>
+        <v>0.005387159205103467</v>
       </c>
       <c r="J5">
-        <v>0.8246174130112753</v>
+        <v>0.004505383996059827</v>
       </c>
       <c r="K5">
-        <v>0.840398239308225</v>
+        <v>0.02500390686044695</v>
       </c>
     </row>
     <row r="6">
@@ -569,34 +569,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.2835663122500456</v>
+        <v>0.02106224659716753</v>
       </c>
       <c r="C6">
-        <v>0.3602683712760593</v>
+        <v>0.0179622236038704</v>
       </c>
       <c r="D6">
-        <v>0.4907542829843987</v>
+        <v>0.015284797178501</v>
       </c>
       <c r="E6">
-        <v>0.4492038950435384</v>
+        <v>0.01427922215176497</v>
       </c>
       <c r="F6">
-        <v>0.4595683894722397</v>
+        <v>0.0151698288310754</v>
       </c>
       <c r="G6">
-        <v>0.612795262795263</v>
+        <v>0.02032942032942034</v>
       </c>
       <c r="H6">
-        <v>0.6533529163410317</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="I6">
-        <v>0.6286427446691614</v>
+        <v>0.0060309351497091</v>
       </c>
       <c r="J6">
-        <v>0.8609739091318041</v>
+        <v>0.005847953216374266</v>
       </c>
       <c r="K6">
-        <v>0.882974481658692</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
